--- a/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
+++ b/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T12:38:03+00:00</t>
+    <t>2025-05-21T13:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
+++ b/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T13:02:00+00:00</t>
+    <t>2025-05-21T13:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
+++ b/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T13:16:37+00:00</t>
+    <t>2025-05-21T13:53:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
+++ b/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T13:53:14+00:00</t>
+    <t>2025-05-21T14:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
+++ b/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:14:19+00:00</t>
+    <t>2025-07-23T09:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
+++ b/test-exemple/ig/ValueSet-eclaire-study-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T09:40:40+00:00</t>
+    <t>2025-07-23T10:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
